--- a/database/output/column reference.xlsx
+++ b/database/output/column reference.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python\project-2\database\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79209854-4EEF-4AEC-BA23-14AE6F12F0A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380FE5FE-4915-4794-A984-E3DAF24701C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10320" yWindow="7875" windowWidth="21600" windowHeight="11385" tabRatio="246" xr2:uid="{DAE53F59-9705-4636-A63E-C49E3F721E2A}"/>
+    <workbookView xWindow="15" yWindow="1560" windowWidth="14385" windowHeight="11385" tabRatio="246" xr2:uid="{DAE53F59-9705-4636-A63E-C49E3F721E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="142">
   <si>
     <t>Staff No</t>
   </si>
@@ -388,6 +389,75 @@
   </si>
   <si>
     <t>32, 34, 36, 38, 40</t>
+  </si>
+  <si>
+    <t>TT Status</t>
+  </si>
+  <si>
+    <t>Superior Name</t>
+  </si>
+  <si>
+    <t>SG Since (YM)</t>
+  </si>
+  <si>
+    <t>Yi PETRONAS</t>
+  </si>
+  <si>
+    <t>Yi Position</t>
+  </si>
+  <si>
+    <t>Date in PETRONAS</t>
+  </si>
+  <si>
+    <t>PPA</t>
+  </si>
+  <si>
+    <t>PPA -19</t>
+  </si>
+  <si>
+    <t>PPA -18</t>
+  </si>
+  <si>
+    <t>PPA -17</t>
+  </si>
+  <si>
+    <t>PPA -16</t>
+  </si>
+  <si>
+    <t>PPA -15</t>
+  </si>
+  <si>
+    <t>Date in Position</t>
+  </si>
+  <si>
+    <t>Date in Department</t>
+  </si>
+  <si>
+    <t>Date in Division</t>
+  </si>
+  <si>
+    <t>Date in Company</t>
+  </si>
+  <si>
+    <t>Retirement Type</t>
+  </si>
+  <si>
+    <t>Talent Analytics</t>
+  </si>
+  <si>
+    <t>Source 1</t>
+  </si>
+  <si>
+    <t>Source 2</t>
+  </si>
+  <si>
+    <t>zp</t>
+  </si>
+  <si>
+    <t>zh</t>
+  </si>
+  <si>
+    <t>od</t>
   </si>
 </sst>
 </file>
@@ -397,7 +467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,8 +475,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,7 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,22 +607,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,29 +952,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986EE276-F965-4F2C-8A2F-9E1699EEE39A}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2">
         <v>27</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
@@ -875,19 +984,19 @@
       <c r="F1">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
         <v>28</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -896,19 +1005,19 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
@@ -917,17 +1026,17 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
@@ -936,19 +1045,19 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
@@ -957,19 +1066,19 @@
       <c r="F5" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="13">
+      <c r="B6" s="4"/>
+      <c r="C6" s="8">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
@@ -978,19 +1087,19 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="13">
+      <c r="B7" s="4"/>
+      <c r="C7" s="8">
         <v>5</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
@@ -999,19 +1108,19 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="13">
+      <c r="B8" s="4"/>
+      <c r="C8" s="8">
         <v>6</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
@@ -1020,19 +1129,19 @@
       <c r="F8">
         <v>6</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="13">
+      <c r="B9" s="4"/>
+      <c r="C9" s="8">
         <v>8</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
@@ -1041,19 +1150,19 @@
       <c r="F9">
         <v>7</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="13">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
@@ -1062,19 +1171,19 @@
       <c r="F10">
         <v>8</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="13">
+      <c r="B11" s="4"/>
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
@@ -1083,19 +1192,19 @@
       <c r="F11">
         <v>9</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="13">
+      <c r="B12" s="4"/>
+      <c r="C12" s="8">
         <v>11</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
@@ -1104,19 +1213,19 @@
       <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="13">
+      <c r="B13" s="4"/>
+      <c r="C13" s="8">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
@@ -1125,19 +1234,19 @@
       <c r="F13">
         <v>11</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="13">
+      <c r="B14" s="4"/>
+      <c r="C14" s="8">
         <v>13</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
@@ -1146,19 +1255,19 @@
       <c r="F14" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="13">
+      <c r="B15" s="4"/>
+      <c r="C15" s="8">
         <v>14</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
@@ -1167,19 +1276,19 @@
       <c r="F15">
         <v>14</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="13">
+      <c r="B16" s="4"/>
+      <c r="C16" s="8">
         <v>15</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
@@ -1188,19 +1297,19 @@
       <c r="F16">
         <v>5</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="13">
+      <c r="B17" s="4"/>
+      <c r="C17" s="8">
         <v>16</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
@@ -1209,19 +1318,19 @@
       <c r="F17">
         <v>16</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="13">
+      <c r="B18" s="4"/>
+      <c r="C18" s="8">
         <v>17</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E18" t="s">
@@ -1230,19 +1339,19 @@
       <c r="F18">
         <v>17</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="13">
+      <c r="B19" s="4"/>
+      <c r="C19" s="8">
         <v>18</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
@@ -1251,19 +1360,19 @@
       <c r="F19">
         <v>18</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="13">
+      <c r="B20" s="4"/>
+      <c r="C20" s="8">
         <v>19</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E20" t="s">
@@ -1272,17 +1381,17 @@
       <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="s">
@@ -1291,17 +1400,17 @@
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E22" t="s">
@@ -1310,19 +1419,19 @@
       <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="13">
+      <c r="B23" s="4"/>
+      <c r="C23" s="8">
         <v>20</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
@@ -1331,19 +1440,19 @@
       <c r="F23">
         <v>22</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="13">
+      <c r="B24" s="4"/>
+      <c r="C24" s="8">
         <v>21</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E24" t="s">
@@ -1352,19 +1461,19 @@
       <c r="F24">
         <v>23</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="13">
+      <c r="B25" s="4"/>
+      <c r="C25" s="8">
         <v>22</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E25" t="s">
@@ -1373,19 +1482,19 @@
       <c r="F25">
         <v>24</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="13">
+      <c r="B26" s="4"/>
+      <c r="C26" s="8">
         <v>23</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E26" t="s">
@@ -1394,19 +1503,19 @@
       <c r="F26">
         <v>25</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="13">
+      <c r="B27" s="4"/>
+      <c r="C27" s="8">
         <v>24</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E27" t="s">
@@ -1415,19 +1524,19 @@
       <c r="F27" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="13">
+      <c r="B28" s="4"/>
+      <c r="C28" s="8">
         <v>25</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E28" t="s">
@@ -1436,19 +1545,19 @@
       <c r="F28">
         <v>26</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="13">
+      <c r="B29" s="4"/>
+      <c r="C29" s="8">
         <v>26</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="17" t="s">
         <v>28</v>
       </c>
       <c r="E29" t="s">
@@ -1457,19 +1566,19 @@
       <c r="F29">
         <v>27</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="17" t="s">
         <v>29</v>
       </c>
       <c r="E30" t="s">
@@ -1478,19 +1587,19 @@
       <c r="F30">
         <v>28</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E31" t="s">
@@ -1499,19 +1608,19 @@
       <c r="F31">
         <v>29</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="13">
+      <c r="B32" s="4"/>
+      <c r="C32" s="8">
         <v>29</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="17" t="s">
         <v>31</v>
       </c>
       <c r="E32" t="s">
@@ -1520,19 +1629,19 @@
       <c r="F32">
         <v>30</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="13">
+      <c r="B33" s="4"/>
+      <c r="C33" s="8">
         <v>30</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E33" t="s">
@@ -1541,73 +1650,73 @@
       <c r="F33">
         <v>31</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="13">
+      <c r="B34" s="4"/>
+      <c r="C34" s="8">
         <v>31</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E34" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="13">
+      <c r="B35" s="4"/>
+      <c r="C35" s="8">
         <v>32</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E35" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="13">
+      <c r="B36" s="4"/>
+      <c r="C36" s="8">
         <v>33</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E36" t="s">
         <v>108</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="13">
+      <c r="B37" s="4"/>
+      <c r="C37" s="8">
         <v>34</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E37" t="s">
@@ -1616,19 +1725,19 @@
       <c r="F37" t="s">
         <v>118</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="13">
+      <c r="B38" s="4"/>
+      <c r="C38" s="8">
         <v>35</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E38" t="s">
@@ -1636,14 +1745,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="13">
+      <c r="B39" s="4"/>
+      <c r="C39" s="8">
         <v>36</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E39" t="s">
@@ -1651,14 +1760,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="13">
+      <c r="B40" s="4"/>
+      <c r="C40" s="8">
         <v>37</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E40" t="s">
@@ -1666,14 +1775,14 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="13">
+      <c r="B41" s="4"/>
+      <c r="C41" s="8">
         <v>38</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E41" t="s">
@@ -1681,14 +1790,14 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="13">
+      <c r="B42" s="4"/>
+      <c r="C42" s="8">
         <v>39</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E42" t="s">
@@ -1696,308 +1805,667 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="13">
+      <c r="B43" s="4"/>
+      <c r="C43" s="8">
         <v>40</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="13">
+      <c r="B44" s="4"/>
+      <c r="C44" s="8">
         <v>41</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="13">
+      <c r="B45" s="4"/>
+      <c r="C45" s="8">
         <v>42</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="13">
+      <c r="B46" s="4"/>
+      <c r="C46" s="8">
         <v>43</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="13">
+      <c r="B47" s="4"/>
+      <c r="C47" s="8">
         <v>44</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="13">
+      <c r="B48" s="4"/>
+      <c r="C48" s="8">
         <v>45</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="13">
+      <c r="B49" s="4"/>
+      <c r="C49" s="8">
         <v>46</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="13">
+      <c r="B50" s="4"/>
+      <c r="C50" s="8">
         <v>47</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="13">
+      <c r="B51" s="4"/>
+      <c r="C51" s="8">
         <v>48</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="13">
+      <c r="B53" s="4"/>
+      <c r="C53" s="8">
         <v>49</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="13">
+      <c r="B54" s="4"/>
+      <c r="C54" s="8">
         <v>50</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="13">
+      <c r="B55" s="4"/>
+      <c r="C55" s="8">
         <v>51</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="13">
+      <c r="B56" s="4"/>
+      <c r="C56" s="8">
         <v>52</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="13">
+      <c r="B57" s="4"/>
+      <c r="C57" s="8">
         <v>53</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="13">
+      <c r="B58" s="4"/>
+      <c r="C58" s="8">
         <v>54</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="13">
+      <c r="B59" s="4"/>
+      <c r="C59" s="8">
         <v>55</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="13">
+      <c r="B60" s="4"/>
+      <c r="C60" s="8">
         <v>56</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="13">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="8">
         <v>57</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="13">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="8">
         <v>58</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="13">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="8">
         <v>59</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="13">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="8">
         <v>1</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="13">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="8">
         <v>3</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="13">
+      <c r="A66" s="3"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="8">
         <v>4</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="13">
+      <c r="A67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="8">
         <v>7</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="8" t="s">
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11" t="s">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="18" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EABCE8B-9340-4AE4-9DAD-74CDCAD99FA7}">
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/database/output/column reference.xlsx
+++ b/database/output/column reference.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python\project-2\database\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380FE5FE-4915-4794-A984-E3DAF24701C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF9A380-3BF3-4CF0-878E-93F2E6A5F6AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="1560" windowWidth="14385" windowHeight="11385" tabRatio="246" xr2:uid="{DAE53F59-9705-4636-A63E-C49E3F721E2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="610" activeTab="2" xr2:uid="{DAE53F59-9705-4636-A63E-C49E3F721E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="145">
   <si>
     <t>Staff No</t>
   </si>
@@ -458,6 +459,15 @@
   </si>
   <si>
     <t>od</t>
+  </si>
+  <si>
+    <t>Pos SUM</t>
+  </si>
+  <si>
+    <t>update 21/4</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -495,7 +505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,6 +521,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -636,6 +688,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986EE276-F965-4F2C-8A2F-9E1699EEE39A}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,7 +1110,9 @@
         <v>64</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
@@ -1054,9 +1131,6 @@
         <v>65</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="D5" s="17" t="s">
         <v>4</v>
       </c>
@@ -2107,6 +2181,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2116,7 +2191,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:XFD1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2468,4 +2543,914 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A88CA0-7D57-463C-9135-0F9A6B525DED}">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="22">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="22">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="23">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="23">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="23">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="23">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="23">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" s="23">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="23">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" s="25">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13" s="23">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14" s="26">
+        <v>61</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" s="26">
+        <v>62</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16" s="23">
+        <v>2</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17" s="27">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18" s="27">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19" s="27">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" s="27">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21" s="27">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22" s="27">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23" s="27">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24" s="27">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25" s="27">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26" s="27">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27" s="27">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28" s="27">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29" s="27">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30" s="23">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>31</v>
+      </c>
+      <c r="D31" s="23">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32" s="27">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
+      <c r="D33" s="27">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+      <c r="D34" s="27">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35" s="27">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36" s="27">
+        <v>54</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37" s="27">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38" s="27">
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39" s="27">
+        <v>57</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40" s="27">
+        <v>58</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41" s="27">
+        <v>59</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>42</v>
+      </c>
+      <c r="D42" s="23">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
+      <c r="D43" s="27">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>44</v>
+      </c>
+      <c r="D44" s="27">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/database/output/column reference.xlsx
+++ b/database/output/column reference.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python\project-2\database\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF9A380-3BF3-4CF0-878E-93F2E6A5F6AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE05B798-DD7C-44FD-9990-DEB64491B508}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="610" activeTab="2" xr2:uid="{DAE53F59-9705-4636-A63E-C49E3F721E2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="610" activeTab="3" xr2:uid="{DAE53F59-9705-4636-A63E-C49E3F721E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="zhpla" sheetId="3" r:id="rId3"/>
+    <sheet name="zpdev" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="152">
   <si>
     <t>Staff No</t>
   </si>
@@ -468,6 +469,27 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>PPA 5 Years</t>
+  </si>
+  <si>
+    <t>40,38,36,34,32</t>
+  </si>
+  <si>
+    <t>SG Year/Month</t>
+  </si>
+  <si>
+    <t>from 25</t>
+  </si>
+  <si>
+    <t>Date in Petronas</t>
+  </si>
+  <si>
+    <t>CEP (Date)</t>
+  </si>
+  <si>
+    <t>Task Type</t>
   </si>
 </sst>
 </file>
@@ -505,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +585,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -711,6 +745,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986EE276-F965-4F2C-8A2F-9E1699EEE39A}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,10 +2584,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A88CA0-7D57-463C-9135-0F9A6B525DED}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,4 +3493,593 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079903BC-79A8-45C7-B4BB-061C3C63EE42}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="29">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="29">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="29">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="29">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="29">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="29">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="29">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="29">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="29">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="29">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="29">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="29">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="29">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="29">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="29">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="29">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="29">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="29">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="29">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="29">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="29">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="29">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="29">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="29">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="29">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="29">
+        <v>29</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="29">
+        <v>15</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="29">
+        <v>30</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="29">
+        <v>31</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="29">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="29">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="29">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/database/output/column reference.xlsx
+++ b/database/output/column reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python\project-2\database\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE05B798-DD7C-44FD-9990-DEB64491B508}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462CFEDB-F0C8-461B-86F8-2081C502ECB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="610" activeTab="3" xr2:uid="{DAE53F59-9705-4636-A63E-C49E3F721E2A}"/>
+    <workbookView xWindow="-10725" yWindow="9555" windowWidth="21600" windowHeight="11385" tabRatio="610" activeTab="2" xr2:uid="{DAE53F59-9705-4636-A63E-C49E3F721E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="154">
   <si>
     <t>Staff No</t>
   </si>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <t>Task Type</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>is date?</t>
   </si>
 </sst>
 </file>
@@ -2589,8 +2595,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3500,10 +3506,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3513,569 +3519,592 @@
     <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C2" s="29">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C4" s="29">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C5" s="29">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C6" s="29">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C7" s="29">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C8" s="29">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C9" s="29">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C10" s="29">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C11" s="29">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C12" s="29">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C13" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C14" s="29">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C15" s="29">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C16" s="29">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C17" s="29">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C18" s="29">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C19" s="29">
         <v>9</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C20" s="29">
         <v>10</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C21" s="29">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C22" s="29">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C23" s="29">
         <v>24</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C24" s="29">
         <v>23</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C25" s="29">
         <v>22</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C26" s="29">
         <v>21</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C27" s="29">
         <v>20</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C28" s="29">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="E28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C29" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" t="s">
+      <c r="C30" s="31"/>
+      <c r="D30" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C31" s="29">
         <v>29</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D31" s="21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="E31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C32" s="29">
         <v>15</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D32" s="21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="E32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C33" s="29">
         <v>30</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D33" s="21" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="E33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C34" s="29">
         <v>31</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D34" s="21" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="E34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" t="s">
+      <c r="C35" s="31"/>
+      <c r="D35" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C36" s="29">
         <v>26</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C37" s="29">
         <v>28</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C38" s="29">
         <v>27</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>110</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>111</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>114</v>
       </c>
     </row>
